--- a/BookData.xlsx
+++ b/BookData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\UiPath\BookToScrape-Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.medici\Documents\UiPath\BookToScrape-Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB679B32-5E2F-42C9-8194-EE08C0452E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E4BE2-FBC7-44DC-9A32-60184A4F18AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,644 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="212">
+  <si>
+    <t>It's Only the Himalayas</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</t>
+  </si>
+  <si>
+    <t>£45.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In stock</t>
+  </si>
+  <si>
+    <t>Full Moon over Noah’s ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</t>
+  </si>
+  <si>
+    <t>£49.43</t>
+  </si>
+  <si>
+    <t>See America: A Celebration ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</t>
+  </si>
+  <si>
+    <t>£48.87</t>
+  </si>
+  <si>
+    <t>Vagabonding: An Uncommon Guide ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</t>
+  </si>
+  <si>
+    <t>£36.94</t>
+  </si>
+  <si>
+    <t>Under the Tuscan Sun</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</t>
+  </si>
+  <si>
+    <t>£37.33</t>
+  </si>
+  <si>
+    <t>A Summer In Europe</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</t>
+  </si>
+  <si>
+    <t>£44.34</t>
+  </si>
+  <si>
+    <t>The Great Railway Bazaar</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</t>
+  </si>
+  <si>
+    <t>£30.54</t>
+  </si>
+  <si>
+    <t>A Year in Provence ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</t>
+  </si>
+  <si>
+    <t>£56.88</t>
+  </si>
+  <si>
+    <t>The Road to Little ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</t>
+  </si>
+  <si>
+    <t>£23.21</t>
+  </si>
+  <si>
+    <t>Neither Here nor There: ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</t>
+  </si>
+  <si>
+    <t>£38.95</t>
+  </si>
+  <si>
+    <t>1,000 Places to See ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</t>
+  </si>
+  <si>
+    <t>£26.08</t>
+  </si>
+  <si>
+    <t>Sharp Objects</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/sharp-objects_997/index.html</t>
+  </si>
+  <si>
+    <t>£47.82</t>
+  </si>
+  <si>
+    <t>In a Dark, Dark ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/in-a-dark-dark-wood_963/index.html</t>
+  </si>
+  <si>
+    <t>£19.63</t>
+  </si>
+  <si>
+    <t>The Past Never Ends</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-past-never-ends_942/index.html</t>
+  </si>
+  <si>
+    <t>£56.50</t>
+  </si>
+  <si>
+    <t>A Murder in Time</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/a-murder-in-time_877/index.html</t>
+  </si>
+  <si>
+    <t>£16.64</t>
+  </si>
+  <si>
+    <t>The Murder of Roger ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-murder-of-roger-ackroyd-hercule-poirot-4_852/index.html</t>
+  </si>
+  <si>
+    <t>£44.10</t>
+  </si>
+  <si>
+    <t>The Last Mile (Amos ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-last-mile-amos-decker-2_754/index.html</t>
+  </si>
+  <si>
+    <t>£54.21</t>
+  </si>
+  <si>
+    <t>That Darkness (Gardiner and ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/that-darkness-gardiner-and-renner-1_743/index.html</t>
+  </si>
+  <si>
+    <t>£13.92</t>
+  </si>
+  <si>
+    <t>Tastes Like Fear (DI ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/tastes-like-fear-di-marnie-rome-3_742/index.html</t>
+  </si>
+  <si>
+    <t>£10.69</t>
+  </si>
+  <si>
+    <t>A Time of Torment ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/a-time-of-torment-charlie-parker-14_657/index.html</t>
+  </si>
+  <si>
+    <t>£48.35</t>
+  </si>
+  <si>
+    <t>A Study in Scarlet ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/a-study-in-scarlet-sherlock-holmes-1_656/index.html</t>
+  </si>
+  <si>
+    <t>£16.73</t>
+  </si>
+  <si>
+    <t>Poisonous (Max Revere Novels ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/poisonous-max-revere-novels-3_627/index.html</t>
+  </si>
+  <si>
+    <t>£26.80</t>
+  </si>
+  <si>
+    <t>Murder at the 42nd ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/murder-at-the-42nd-street-library-raymond-ambler-1_624/index.html</t>
+  </si>
+  <si>
+    <t>£54.36</t>
+  </si>
+  <si>
+    <t>Most Wanted</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/most-wanted_623/index.html</t>
+  </si>
+  <si>
+    <t>£35.28</t>
+  </si>
+  <si>
+    <t>Hide Away (Eve Duncan ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/hide-away-eve-duncan-20_620/index.html</t>
+  </si>
+  <si>
+    <t>£11.84</t>
+  </si>
+  <si>
+    <t>Boar Island (Anna Pigeon ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/boar-island-anna-pigeon-19_613/index.html</t>
+  </si>
+  <si>
+    <t>£59.48</t>
+  </si>
+  <si>
+    <t>The Widow</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-widow_609/index.html</t>
+  </si>
+  <si>
+    <t>£27.26</t>
+  </si>
+  <si>
+    <t>Playing with Fire</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/playing-with-fire_602/index.html</t>
+  </si>
+  <si>
+    <t>£13.71</t>
+  </si>
+  <si>
+    <t>What Happened on Beale ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/what-happened-on-beale-street-secrets-of-the-south-mysteries-2_506/index.html</t>
+  </si>
+  <si>
+    <t>£25.37</t>
+  </si>
+  <si>
+    <t>The Bachelor Girl's Guide ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-bachelor-girls-guide-to-murder-herringford-and-watts-mysteries-1_491/index.html</t>
+  </si>
+  <si>
+    <t>£52.30</t>
+  </si>
+  <si>
+    <t>Delivering the Truth (Quaker ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/delivering-the-truth-quaker-midwife-mystery-1_464/index.html</t>
+  </si>
+  <si>
+    <t>£20.89</t>
+  </si>
+  <si>
+    <t>The Mysterious Affair at ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-mysterious-affair-at-styles-hercule-poirot-1_452/index.html</t>
+  </si>
+  <si>
+    <t>£24.80</t>
+  </si>
+  <si>
+    <t>In the Woods (Dublin ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/in-the-woods-dublin-murder-squad-1_433/index.html</t>
+  </si>
+  <si>
+    <t>£38.38</t>
+  </si>
+  <si>
+    <t>The Silkworm (Cormoran Strike ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-silkworm-cormoran-strike-2_280/index.html</t>
+  </si>
+  <si>
+    <t>£23.05</t>
+  </si>
+  <si>
+    <t>The Exiled</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-exiled_247/index.html</t>
+  </si>
+  <si>
+    <t>£43.45</t>
+  </si>
+  <si>
+    <t>The Cuckoo's Calling (Cormoran ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-cuckoos-calling-cormoran-strike-1_239/index.html</t>
+  </si>
+  <si>
+    <t>£19.21</t>
+  </si>
+  <si>
+    <t>Extreme Prey (Lucas Davenport ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/extreme-prey-lucas-davenport-26_154/index.html</t>
+  </si>
+  <si>
+    <t>£25.40</t>
+  </si>
+  <si>
+    <t>Career of Evil (Cormoran ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/career-of-evil-cormoran-strike-3_137/index.html</t>
+  </si>
+  <si>
+    <t>£24.72</t>
+  </si>
+  <si>
+    <t>The No. 1 Ladies' ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-no-1-ladies-detective-agency-no-1-ladies-detective-agency-1_76/index.html</t>
+  </si>
+  <si>
+    <t>£57.70</t>
+  </si>
+  <si>
+    <t>The Girl You Lost</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-girl-you-lost_66/index.html</t>
+  </si>
+  <si>
+    <t>£12.29</t>
+  </si>
+  <si>
+    <t>The Girl In The ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-girl-in-the-ice-dci-erika-foster-1_65/index.html</t>
+  </si>
+  <si>
+    <t>£15.85</t>
+  </si>
+  <si>
+    <t>Blood Defense (Samantha Brinkman ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/blood-defense-samantha-brinkman-1_8/index.html</t>
+  </si>
+  <si>
+    <t>£20.30</t>
+  </si>
+  <si>
+    <t>1st to Die (Women's ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/1st-to-die-womens-murder-club-1_2/index.html</t>
+  </si>
+  <si>
+    <t>£53.98</t>
+  </si>
+  <si>
+    <t>Tipping the Velvet</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/tipping-the-velvet_999/index.html</t>
+  </si>
+  <si>
+    <t>£53.74</t>
+  </si>
+  <si>
+    <t>Forever and Forever: The ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/forever-and-forever-the-courtship-of-henry-longfellow-and-fanny-appleton_894/index.html</t>
+  </si>
+  <si>
+    <t>£29.69</t>
+  </si>
+  <si>
+    <t>A Flight of Arrows ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/a-flight-of-arrows-the-pathfinders-2_876/index.html</t>
+  </si>
+  <si>
+    <t>£55.53</t>
+  </si>
+  <si>
+    <t>The House by the ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-house-by-the-lake_846/index.html</t>
+  </si>
+  <si>
+    <t>£36.95</t>
+  </si>
+  <si>
+    <t>Mrs. Houdini</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/mrs-houdini_821/index.html</t>
+  </si>
+  <si>
+    <t>£30.25</t>
+  </si>
+  <si>
+    <t>The Marriage of Opposites</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-marriage-of-opposites_759/index.html</t>
+  </si>
+  <si>
+    <t>£28.08</t>
+  </si>
+  <si>
+    <t>Glory over Everything: Beyond ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/glory-over-everything-beyond-the-kitchen-house_696/index.html</t>
+  </si>
+  <si>
+    <t>£45.84</t>
+  </si>
+  <si>
+    <t>Love, Lies and Spies</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/love-lies-and-spies_622/index.html</t>
+  </si>
+  <si>
+    <t>£20.55</t>
+  </si>
+  <si>
+    <t>A Paris Apartment</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/a-paris-apartment_612/index.html</t>
+  </si>
+  <si>
+    <t>£39.01</t>
+  </si>
+  <si>
+    <t>Lilac Girls</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/lilac-girls_597/index.html</t>
+  </si>
+  <si>
+    <t>£17.28</t>
+  </si>
+  <si>
+    <t>The Constant Princess (The ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-constant-princess-the-tudor-court-1_493/index.html</t>
+  </si>
+  <si>
+    <t>£16.62</t>
+  </si>
+  <si>
+    <t>The Invention of Wings</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-invention-of-wings_448/index.html</t>
+  </si>
+  <si>
+    <t>£37.34</t>
+  </si>
+  <si>
+    <t>World Without End (The ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/world-without-end-the-pillars-of-the-earth-2_420/index.html</t>
+  </si>
+  <si>
+    <t>£32.97</t>
+  </si>
+  <si>
+    <t>The Passion of Dolssa</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-passion-of-dolssa_351/index.html</t>
+  </si>
+  <si>
+    <t>£28.32</t>
+  </si>
+  <si>
+    <t>Girl With a Pearl ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/girl-with-a-pearl-earring_322/index.html</t>
+  </si>
+  <si>
+    <t>£26.77</t>
+  </si>
+  <si>
+    <t>Voyager (Outlander #3)</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/voyager-outlander-3_299/index.html</t>
+  </si>
+  <si>
+    <t>£21.07</t>
+  </si>
+  <si>
+    <t>The Red Tent</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-red-tent_273/index.html</t>
+  </si>
+  <si>
+    <t>£35.66</t>
+  </si>
+  <si>
+    <t>The Last Painting of ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-last-painting-of-sara-de-vos_259/index.html</t>
+  </si>
+  <si>
+    <t>£55.55</t>
+  </si>
+  <si>
+    <t>The Guernsey Literary and ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-guernsey-literary-and-potato-peel-pie-society_253/index.html</t>
+  </si>
+  <si>
+    <t>£49.53</t>
+  </si>
+  <si>
+    <t>Girl in the Blue ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/girl-in-the-blue-coat_160/index.html</t>
+  </si>
+  <si>
+    <t>£46.83</t>
+  </si>
+  <si>
+    <t>Between Shades of Gray</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/between-shades-of-gray_128/index.html</t>
+  </si>
+  <si>
+    <t>£20.79</t>
+  </si>
+  <si>
+    <t>While You Were Mine</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/while-you-were-mine_97/index.html</t>
+  </si>
+  <si>
+    <t>£41.32</t>
+  </si>
+  <si>
+    <t>The Secret Healer</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/the-secret-healer_80/index.html</t>
+  </si>
+  <si>
+    <t>£34.56</t>
+  </si>
+  <si>
+    <t>Starlark</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/starlark_56/index.html</t>
+  </si>
+  <si>
+    <t>£25.83</t>
+  </si>
+  <si>
+    <t>Lost Among the Living</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/lost-among-the-living_31/index.html</t>
+  </si>
+  <si>
+    <t>£27.70</t>
+  </si>
+  <si>
+    <t>A Spy's Devotion (The ...</t>
+  </si>
+  <si>
+    <t>http://books.toscrape.com/catalogue/a-spys-devotion-the-regency-spies-of-london-1_3/index.html</t>
+  </si>
+  <si>
+    <t>£16.97</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Book URL</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,21 +980,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A257:AM881"/>
+  <dimension ref="A257:DK1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="32.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="39" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="43" width="32.6328125" customWidth="1"/>
+    <col min="44" max="44" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="62" width="32.6328125" customWidth="1"/>
+    <col min="63" max="63" width="119.36328125" bestFit="1" customWidth="1"/>
+    <col min="64" max="90" width="32.6328125" customWidth="1"/>
+    <col min="91" max="91" width="15.36328125" customWidth="1"/>
+    <col min="92" max="115" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="257" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -397,8 +1038,106 @@
       <c r="AK257" s="1"/>
       <c r="AL257" s="1"/>
       <c r="AM257" s="1"/>
-    </row>
-    <row r="881" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN257" s="1"/>
+      <c r="AO257" s="1"/>
+      <c r="AP257" s="1"/>
+      <c r="AQ257" s="1"/>
+      <c r="AR257" s="1"/>
+      <c r="AS257" s="1"/>
+      <c r="AT257" s="1"/>
+      <c r="AU257" s="1"/>
+      <c r="AV257" s="1"/>
+      <c r="AW257" s="1"/>
+      <c r="AX257" s="1"/>
+      <c r="AY257" s="1"/>
+      <c r="AZ257" s="1"/>
+      <c r="BA257" s="1"/>
+      <c r="BB257" s="1"/>
+      <c r="BC257" s="1"/>
+      <c r="BD257" s="1"/>
+      <c r="BE257" s="1"/>
+      <c r="BF257" s="1"/>
+      <c r="BG257" s="1"/>
+      <c r="BH257" s="1"/>
+      <c r="BI257" s="1"/>
+      <c r="BJ257" s="1"/>
+      <c r="BK257" s="1"/>
+      <c r="BL257" s="1"/>
+      <c r="BM257" s="1"/>
+      <c r="BN257" s="1"/>
+      <c r="BO257" s="1"/>
+      <c r="BP257" s="1"/>
+      <c r="BQ257" s="1"/>
+      <c r="BR257" s="1"/>
+      <c r="BS257" s="1"/>
+      <c r="BT257" s="1"/>
+      <c r="BU257" s="1"/>
+      <c r="BV257" s="1"/>
+      <c r="BW257" s="1"/>
+      <c r="BX257" s="1"/>
+      <c r="BY257" s="1"/>
+      <c r="BZ257" s="1"/>
+      <c r="CA257" s="1"/>
+      <c r="CB257" s="1"/>
+      <c r="CC257" s="1"/>
+      <c r="CD257" s="1"/>
+      <c r="CE257" s="1"/>
+      <c r="CF257" s="1"/>
+      <c r="CG257" s="1"/>
+      <c r="CH257" s="1"/>
+      <c r="CI257" s="1"/>
+      <c r="CJ257" s="1"/>
+      <c r="CK257" s="1"/>
+      <c r="CL257" s="1"/>
+      <c r="CM257" s="1"/>
+      <c r="CN257" s="1"/>
+      <c r="CO257" s="1"/>
+      <c r="CP257" s="1"/>
+      <c r="CQ257" s="1"/>
+      <c r="CR257" s="1"/>
+      <c r="CS257" s="1"/>
+      <c r="CT257" s="1"/>
+      <c r="CU257" s="1"/>
+      <c r="CV257" s="1"/>
+      <c r="CW257" s="1"/>
+      <c r="CX257" s="1"/>
+      <c r="CY257" s="1"/>
+      <c r="CZ257" s="1"/>
+      <c r="DA257" s="1"/>
+      <c r="DB257" s="1"/>
+      <c r="DC257" s="1"/>
+      <c r="DD257" s="1"/>
+      <c r="DE257" s="1"/>
+      <c r="DF257" s="1"/>
+      <c r="DG257" s="1"/>
+      <c r="DH257" s="1"/>
+      <c r="DI257" s="1"/>
+      <c r="DJ257" s="1"/>
+      <c r="DK257" s="1"/>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="1"/>
+      <c r="F419" s="1"/>
+      <c r="G419" s="1"/>
+      <c r="H419" s="1"/>
+      <c r="I419" s="1"/>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A693" s="2"/>
+      <c r="B693" s="2"/>
+      <c r="C693" s="2"/>
+      <c r="D693" s="2"/>
+      <c r="E693" s="2"/>
+      <c r="F693" s="2"/>
+      <c r="G693" s="2"/>
+      <c r="H693" s="2"/>
+      <c r="I693" s="2"/>
+    </row>
+    <row r="881" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -438,6 +1177,1986 @@
       <c r="AK881" s="2"/>
       <c r="AL881" s="2"/>
       <c r="AM881" s="2"/>
+      <c r="AN881" s="2"/>
+      <c r="AO881" s="2"/>
+      <c r="AP881" s="2"/>
+      <c r="AQ881" s="2"/>
+      <c r="AR881" s="2"/>
+      <c r="AS881" s="2"/>
+      <c r="AT881" s="2"/>
+      <c r="AU881" s="2"/>
+      <c r="AV881" s="2"/>
+      <c r="AW881" s="2"/>
+      <c r="AX881" s="2"/>
+      <c r="AY881" s="2"/>
+      <c r="AZ881" s="2"/>
+      <c r="BA881" s="2"/>
+      <c r="BB881" s="2"/>
+      <c r="BC881" s="2"/>
+      <c r="BD881" s="2"/>
+      <c r="BE881" s="2"/>
+      <c r="BF881" s="2"/>
+      <c r="BG881" s="2"/>
+      <c r="BH881" s="2"/>
+      <c r="BI881" s="2"/>
+      <c r="BJ881" s="2"/>
+      <c r="BK881" s="2"/>
+      <c r="BL881" s="2"/>
+      <c r="BM881" s="2"/>
+      <c r="BN881" s="2"/>
+      <c r="BO881" s="2"/>
+      <c r="BP881" s="2"/>
+      <c r="BQ881" s="2"/>
+      <c r="BR881" s="2"/>
+      <c r="BS881" s="2"/>
+      <c r="BT881" s="2"/>
+      <c r="BU881" s="2"/>
+      <c r="BV881" s="2"/>
+      <c r="BW881" s="2"/>
+      <c r="BX881" s="2"/>
+      <c r="BY881" s="2"/>
+      <c r="BZ881" s="2"/>
+      <c r="CA881" s="2"/>
+      <c r="CB881" s="2"/>
+      <c r="CC881" s="2"/>
+      <c r="CD881" s="2"/>
+      <c r="CE881" s="2"/>
+      <c r="CF881" s="2"/>
+      <c r="CG881" s="2"/>
+      <c r="CH881" s="2"/>
+      <c r="CI881" s="2"/>
+      <c r="CJ881" s="2"/>
+      <c r="CK881" s="2"/>
+      <c r="CL881" s="2"/>
+      <c r="CM881" s="2"/>
+      <c r="CN881" s="2"/>
+      <c r="CO881" s="2"/>
+      <c r="CP881" s="2"/>
+      <c r="CQ881" s="2"/>
+      <c r="CR881" s="2"/>
+      <c r="CS881" s="2"/>
+      <c r="CT881" s="2"/>
+      <c r="CU881" s="2"/>
+      <c r="CV881" s="2"/>
+      <c r="CW881" s="2"/>
+      <c r="CX881" s="2"/>
+      <c r="CY881" s="2"/>
+      <c r="CZ881" s="2"/>
+      <c r="DA881" s="2"/>
+      <c r="DB881" s="2"/>
+      <c r="DC881" s="2"/>
+      <c r="DD881" s="2"/>
+      <c r="DE881" s="2"/>
+      <c r="DF881" s="2"/>
+      <c r="DG881" s="2"/>
+      <c r="DH881" s="2"/>
+      <c r="DI881" s="2"/>
+      <c r="DJ881" s="2"/>
+      <c r="DK881" s="2"/>
+    </row>
+    <row r="882" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A882" t="s">
+        <v>0</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1</v>
+      </c>
+      <c r="C882" t="s">
+        <v>2</v>
+      </c>
+      <c r="D882" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A883" t="s">
+        <v>4</v>
+      </c>
+      <c r="B883" t="s">
+        <v>5</v>
+      </c>
+      <c r="C883" t="s">
+        <v>6</v>
+      </c>
+      <c r="D883" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A884" t="s">
+        <v>7</v>
+      </c>
+      <c r="B884" t="s">
+        <v>8</v>
+      </c>
+      <c r="C884" t="s">
+        <v>9</v>
+      </c>
+      <c r="D884" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A885" t="s">
+        <v>10</v>
+      </c>
+      <c r="B885" t="s">
+        <v>11</v>
+      </c>
+      <c r="C885" t="s">
+        <v>12</v>
+      </c>
+      <c r="D885" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A886" t="s">
+        <v>13</v>
+      </c>
+      <c r="B886" t="s">
+        <v>14</v>
+      </c>
+      <c r="C886" t="s">
+        <v>15</v>
+      </c>
+      <c r="D886" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A887" t="s">
+        <v>16</v>
+      </c>
+      <c r="B887" t="s">
+        <v>17</v>
+      </c>
+      <c r="C887" t="s">
+        <v>18</v>
+      </c>
+      <c r="D887" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A888" t="s">
+        <v>19</v>
+      </c>
+      <c r="B888" t="s">
+        <v>20</v>
+      </c>
+      <c r="C888" t="s">
+        <v>21</v>
+      </c>
+      <c r="D888" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A889" t="s">
+        <v>22</v>
+      </c>
+      <c r="B889" t="s">
+        <v>23</v>
+      </c>
+      <c r="C889" t="s">
+        <v>24</v>
+      </c>
+      <c r="D889" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A890" t="s">
+        <v>25</v>
+      </c>
+      <c r="B890" t="s">
+        <v>26</v>
+      </c>
+      <c r="C890" t="s">
+        <v>27</v>
+      </c>
+      <c r="D890" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>28</v>
+      </c>
+      <c r="B891" t="s">
+        <v>29</v>
+      </c>
+      <c r="C891" t="s">
+        <v>30</v>
+      </c>
+      <c r="D891" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A892" t="s">
+        <v>31</v>
+      </c>
+      <c r="B892" t="s">
+        <v>32</v>
+      </c>
+      <c r="C892" t="s">
+        <v>33</v>
+      </c>
+      <c r="D892" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>34</v>
+      </c>
+      <c r="B893" t="s">
+        <v>35</v>
+      </c>
+      <c r="C893" t="s">
+        <v>36</v>
+      </c>
+      <c r="D893" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>37</v>
+      </c>
+      <c r="B894" t="s">
+        <v>38</v>
+      </c>
+      <c r="C894" t="s">
+        <v>39</v>
+      </c>
+      <c r="D894" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>40</v>
+      </c>
+      <c r="B895" t="s">
+        <v>41</v>
+      </c>
+      <c r="C895" t="s">
+        <v>42</v>
+      </c>
+      <c r="D895" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:115" x14ac:dyDescent="0.35">
+      <c r="A896" t="s">
+        <v>43</v>
+      </c>
+      <c r="B896" t="s">
+        <v>44</v>
+      </c>
+      <c r="C896" t="s">
+        <v>45</v>
+      </c>
+      <c r="D896" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>46</v>
+      </c>
+      <c r="B897" t="s">
+        <v>47</v>
+      </c>
+      <c r="C897" t="s">
+        <v>48</v>
+      </c>
+      <c r="D897" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A898" t="s">
+        <v>49</v>
+      </c>
+      <c r="B898" t="s">
+        <v>50</v>
+      </c>
+      <c r="C898" t="s">
+        <v>51</v>
+      </c>
+      <c r="D898" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>52</v>
+      </c>
+      <c r="B899" t="s">
+        <v>53</v>
+      </c>
+      <c r="C899" t="s">
+        <v>54</v>
+      </c>
+      <c r="D899" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>55</v>
+      </c>
+      <c r="B900" t="s">
+        <v>56</v>
+      </c>
+      <c r="C900" t="s">
+        <v>57</v>
+      </c>
+      <c r="D900" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A901" t="s">
+        <v>58</v>
+      </c>
+      <c r="B901" t="s">
+        <v>59</v>
+      </c>
+      <c r="C901" t="s">
+        <v>60</v>
+      </c>
+      <c r="D901" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A902" t="s">
+        <v>61</v>
+      </c>
+      <c r="B902" t="s">
+        <v>62</v>
+      </c>
+      <c r="C902" t="s">
+        <v>63</v>
+      </c>
+      <c r="D902" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A903" t="s">
+        <v>64</v>
+      </c>
+      <c r="B903" t="s">
+        <v>65</v>
+      </c>
+      <c r="C903" t="s">
+        <v>66</v>
+      </c>
+      <c r="D903" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A904" t="s">
+        <v>67</v>
+      </c>
+      <c r="B904" t="s">
+        <v>68</v>
+      </c>
+      <c r="C904" t="s">
+        <v>69</v>
+      </c>
+      <c r="D904" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A905" t="s">
+        <v>70</v>
+      </c>
+      <c r="B905" t="s">
+        <v>71</v>
+      </c>
+      <c r="C905" t="s">
+        <v>72</v>
+      </c>
+      <c r="D905" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A906" t="s">
+        <v>73</v>
+      </c>
+      <c r="B906" t="s">
+        <v>74</v>
+      </c>
+      <c r="C906" t="s">
+        <v>75</v>
+      </c>
+      <c r="D906" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A907" t="s">
+        <v>76</v>
+      </c>
+      <c r="B907" t="s">
+        <v>77</v>
+      </c>
+      <c r="C907" t="s">
+        <v>78</v>
+      </c>
+      <c r="D907" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A908" t="s">
+        <v>79</v>
+      </c>
+      <c r="B908" t="s">
+        <v>80</v>
+      </c>
+      <c r="C908" t="s">
+        <v>81</v>
+      </c>
+      <c r="D908" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A909" t="s">
+        <v>82</v>
+      </c>
+      <c r="B909" t="s">
+        <v>83</v>
+      </c>
+      <c r="C909" t="s">
+        <v>84</v>
+      </c>
+      <c r="D909" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A910" t="s">
+        <v>85</v>
+      </c>
+      <c r="B910" t="s">
+        <v>86</v>
+      </c>
+      <c r="C910" t="s">
+        <v>87</v>
+      </c>
+      <c r="D910" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A911" t="s">
+        <v>88</v>
+      </c>
+      <c r="B911" t="s">
+        <v>89</v>
+      </c>
+      <c r="C911" t="s">
+        <v>90</v>
+      </c>
+      <c r="D911" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A912" t="s">
+        <v>91</v>
+      </c>
+      <c r="B912" t="s">
+        <v>92</v>
+      </c>
+      <c r="C912" t="s">
+        <v>93</v>
+      </c>
+      <c r="D912" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A913" t="s">
+        <v>94</v>
+      </c>
+      <c r="B913" t="s">
+        <v>95</v>
+      </c>
+      <c r="C913" t="s">
+        <v>96</v>
+      </c>
+      <c r="D913" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A914" t="s">
+        <v>97</v>
+      </c>
+      <c r="B914" t="s">
+        <v>98</v>
+      </c>
+      <c r="C914" t="s">
+        <v>99</v>
+      </c>
+      <c r="D914" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A915" t="s">
+        <v>100</v>
+      </c>
+      <c r="B915" t="s">
+        <v>101</v>
+      </c>
+      <c r="C915" t="s">
+        <v>102</v>
+      </c>
+      <c r="D915" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A916" t="s">
+        <v>103</v>
+      </c>
+      <c r="B916" t="s">
+        <v>104</v>
+      </c>
+      <c r="C916" t="s">
+        <v>105</v>
+      </c>
+      <c r="D916" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A917" t="s">
+        <v>106</v>
+      </c>
+      <c r="B917" t="s">
+        <v>107</v>
+      </c>
+      <c r="C917" t="s">
+        <v>108</v>
+      </c>
+      <c r="D917" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A918" t="s">
+        <v>109</v>
+      </c>
+      <c r="B918" t="s">
+        <v>110</v>
+      </c>
+      <c r="C918" t="s">
+        <v>111</v>
+      </c>
+      <c r="D918" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A919" t="s">
+        <v>112</v>
+      </c>
+      <c r="B919" t="s">
+        <v>113</v>
+      </c>
+      <c r="C919" t="s">
+        <v>114</v>
+      </c>
+      <c r="D919" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A920" t="s">
+        <v>115</v>
+      </c>
+      <c r="B920" t="s">
+        <v>116</v>
+      </c>
+      <c r="C920" t="s">
+        <v>117</v>
+      </c>
+      <c r="D920" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A921" t="s">
+        <v>118</v>
+      </c>
+      <c r="B921" t="s">
+        <v>119</v>
+      </c>
+      <c r="C921" t="s">
+        <v>120</v>
+      </c>
+      <c r="D921" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A922" t="s">
+        <v>121</v>
+      </c>
+      <c r="B922" t="s">
+        <v>122</v>
+      </c>
+      <c r="C922" t="s">
+        <v>123</v>
+      </c>
+      <c r="D922" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A923" t="s">
+        <v>124</v>
+      </c>
+      <c r="B923" t="s">
+        <v>125</v>
+      </c>
+      <c r="C923" t="s">
+        <v>126</v>
+      </c>
+      <c r="D923" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A924" t="s">
+        <v>127</v>
+      </c>
+      <c r="B924" t="s">
+        <v>128</v>
+      </c>
+      <c r="C924" t="s">
+        <v>129</v>
+      </c>
+      <c r="D924" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A925" t="s">
+        <v>0</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1</v>
+      </c>
+      <c r="C925" t="s">
+        <v>2</v>
+      </c>
+      <c r="D925" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A926" t="s">
+        <v>4</v>
+      </c>
+      <c r="B926" t="s">
+        <v>5</v>
+      </c>
+      <c r="C926" t="s">
+        <v>6</v>
+      </c>
+      <c r="D926" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A927" t="s">
+        <v>7</v>
+      </c>
+      <c r="B927" t="s">
+        <v>8</v>
+      </c>
+      <c r="C927" t="s">
+        <v>9</v>
+      </c>
+      <c r="D927" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A928" t="s">
+        <v>10</v>
+      </c>
+      <c r="B928" t="s">
+        <v>11</v>
+      </c>
+      <c r="C928" t="s">
+        <v>12</v>
+      </c>
+      <c r="D928" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A929" t="s">
+        <v>13</v>
+      </c>
+      <c r="B929" t="s">
+        <v>14</v>
+      </c>
+      <c r="C929" t="s">
+        <v>15</v>
+      </c>
+      <c r="D929" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A930" t="s">
+        <v>16</v>
+      </c>
+      <c r="B930" t="s">
+        <v>17</v>
+      </c>
+      <c r="C930" t="s">
+        <v>18</v>
+      </c>
+      <c r="D930" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A931" t="s">
+        <v>19</v>
+      </c>
+      <c r="B931" t="s">
+        <v>20</v>
+      </c>
+      <c r="C931" t="s">
+        <v>21</v>
+      </c>
+      <c r="D931" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A932" t="s">
+        <v>22</v>
+      </c>
+      <c r="B932" t="s">
+        <v>23</v>
+      </c>
+      <c r="C932" t="s">
+        <v>24</v>
+      </c>
+      <c r="D932" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A933" t="s">
+        <v>25</v>
+      </c>
+      <c r="B933" t="s">
+        <v>26</v>
+      </c>
+      <c r="C933" t="s">
+        <v>27</v>
+      </c>
+      <c r="D933" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A934" t="s">
+        <v>28</v>
+      </c>
+      <c r="B934" t="s">
+        <v>29</v>
+      </c>
+      <c r="C934" t="s">
+        <v>30</v>
+      </c>
+      <c r="D934" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A935" t="s">
+        <v>31</v>
+      </c>
+      <c r="B935" t="s">
+        <v>32</v>
+      </c>
+      <c r="C935" t="s">
+        <v>33</v>
+      </c>
+      <c r="D935" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A936" t="s">
+        <v>34</v>
+      </c>
+      <c r="B936" t="s">
+        <v>35</v>
+      </c>
+      <c r="C936" t="s">
+        <v>36</v>
+      </c>
+      <c r="D936" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A937" t="s">
+        <v>37</v>
+      </c>
+      <c r="B937" t="s">
+        <v>38</v>
+      </c>
+      <c r="C937" t="s">
+        <v>39</v>
+      </c>
+      <c r="D937" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A938" t="s">
+        <v>40</v>
+      </c>
+      <c r="B938" t="s">
+        <v>41</v>
+      </c>
+      <c r="C938" t="s">
+        <v>42</v>
+      </c>
+      <c r="D938" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A939" t="s">
+        <v>43</v>
+      </c>
+      <c r="B939" t="s">
+        <v>44</v>
+      </c>
+      <c r="C939" t="s">
+        <v>45</v>
+      </c>
+      <c r="D939" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A940" t="s">
+        <v>46</v>
+      </c>
+      <c r="B940" t="s">
+        <v>47</v>
+      </c>
+      <c r="C940" t="s">
+        <v>48</v>
+      </c>
+      <c r="D940" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A941" t="s">
+        <v>49</v>
+      </c>
+      <c r="B941" t="s">
+        <v>50</v>
+      </c>
+      <c r="C941" t="s">
+        <v>51</v>
+      </c>
+      <c r="D941" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A942" t="s">
+        <v>52</v>
+      </c>
+      <c r="B942" t="s">
+        <v>53</v>
+      </c>
+      <c r="C942" t="s">
+        <v>54</v>
+      </c>
+      <c r="D942" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A943" t="s">
+        <v>55</v>
+      </c>
+      <c r="B943" t="s">
+        <v>56</v>
+      </c>
+      <c r="C943" t="s">
+        <v>57</v>
+      </c>
+      <c r="D943" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A944" t="s">
+        <v>58</v>
+      </c>
+      <c r="B944" t="s">
+        <v>59</v>
+      </c>
+      <c r="C944" t="s">
+        <v>60</v>
+      </c>
+      <c r="D944" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A945" t="s">
+        <v>61</v>
+      </c>
+      <c r="B945" t="s">
+        <v>62</v>
+      </c>
+      <c r="C945" t="s">
+        <v>63</v>
+      </c>
+      <c r="D945" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A946" t="s">
+        <v>64</v>
+      </c>
+      <c r="B946" t="s">
+        <v>65</v>
+      </c>
+      <c r="C946" t="s">
+        <v>66</v>
+      </c>
+      <c r="D946" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A947" t="s">
+        <v>67</v>
+      </c>
+      <c r="B947" t="s">
+        <v>68</v>
+      </c>
+      <c r="C947" t="s">
+        <v>69</v>
+      </c>
+      <c r="D947" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A948" t="s">
+        <v>70</v>
+      </c>
+      <c r="B948" t="s">
+        <v>71</v>
+      </c>
+      <c r="C948" t="s">
+        <v>72</v>
+      </c>
+      <c r="D948" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A949" t="s">
+        <v>73</v>
+      </c>
+      <c r="B949" t="s">
+        <v>74</v>
+      </c>
+      <c r="C949" t="s">
+        <v>75</v>
+      </c>
+      <c r="D949" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A950" t="s">
+        <v>76</v>
+      </c>
+      <c r="B950" t="s">
+        <v>77</v>
+      </c>
+      <c r="C950" t="s">
+        <v>78</v>
+      </c>
+      <c r="D950" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A951" t="s">
+        <v>79</v>
+      </c>
+      <c r="B951" t="s">
+        <v>80</v>
+      </c>
+      <c r="C951" t="s">
+        <v>81</v>
+      </c>
+      <c r="D951" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A952" t="s">
+        <v>82</v>
+      </c>
+      <c r="B952" t="s">
+        <v>83</v>
+      </c>
+      <c r="C952" t="s">
+        <v>84</v>
+      </c>
+      <c r="D952" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A953" t="s">
+        <v>85</v>
+      </c>
+      <c r="B953" t="s">
+        <v>86</v>
+      </c>
+      <c r="C953" t="s">
+        <v>87</v>
+      </c>
+      <c r="D953" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A954" t="s">
+        <v>88</v>
+      </c>
+      <c r="B954" t="s">
+        <v>89</v>
+      </c>
+      <c r="C954" t="s">
+        <v>90</v>
+      </c>
+      <c r="D954" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A955" t="s">
+        <v>91</v>
+      </c>
+      <c r="B955" t="s">
+        <v>92</v>
+      </c>
+      <c r="C955" t="s">
+        <v>93</v>
+      </c>
+      <c r="D955" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A956" t="s">
+        <v>94</v>
+      </c>
+      <c r="B956" t="s">
+        <v>95</v>
+      </c>
+      <c r="C956" t="s">
+        <v>96</v>
+      </c>
+      <c r="D956" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A957" t="s">
+        <v>97</v>
+      </c>
+      <c r="B957" t="s">
+        <v>98</v>
+      </c>
+      <c r="C957" t="s">
+        <v>99</v>
+      </c>
+      <c r="D957" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A958" t="s">
+        <v>100</v>
+      </c>
+      <c r="B958" t="s">
+        <v>101</v>
+      </c>
+      <c r="C958" t="s">
+        <v>102</v>
+      </c>
+      <c r="D958" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A959" t="s">
+        <v>103</v>
+      </c>
+      <c r="B959" t="s">
+        <v>104</v>
+      </c>
+      <c r="C959" t="s">
+        <v>105</v>
+      </c>
+      <c r="D959" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A960" t="s">
+        <v>106</v>
+      </c>
+      <c r="B960" t="s">
+        <v>107</v>
+      </c>
+      <c r="C960" t="s">
+        <v>108</v>
+      </c>
+      <c r="D960" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A961" t="s">
+        <v>109</v>
+      </c>
+      <c r="B961" t="s">
+        <v>110</v>
+      </c>
+      <c r="C961" t="s">
+        <v>111</v>
+      </c>
+      <c r="D961" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A962" t="s">
+        <v>112</v>
+      </c>
+      <c r="B962" t="s">
+        <v>113</v>
+      </c>
+      <c r="C962" t="s">
+        <v>114</v>
+      </c>
+      <c r="D962" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A963" t="s">
+        <v>115</v>
+      </c>
+      <c r="B963" t="s">
+        <v>116</v>
+      </c>
+      <c r="C963" t="s">
+        <v>117</v>
+      </c>
+      <c r="D963" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A964" t="s">
+        <v>118</v>
+      </c>
+      <c r="B964" t="s">
+        <v>119</v>
+      </c>
+      <c r="C964" t="s">
+        <v>120</v>
+      </c>
+      <c r="D964" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A965" t="s">
+        <v>121</v>
+      </c>
+      <c r="B965" t="s">
+        <v>122</v>
+      </c>
+      <c r="C965" t="s">
+        <v>123</v>
+      </c>
+      <c r="D965" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A966" t="s">
+        <v>124</v>
+      </c>
+      <c r="B966" t="s">
+        <v>125</v>
+      </c>
+      <c r="C966" t="s">
+        <v>126</v>
+      </c>
+      <c r="D966" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A967" t="s">
+        <v>127</v>
+      </c>
+      <c r="B967" t="s">
+        <v>128</v>
+      </c>
+      <c r="C967" t="s">
+        <v>129</v>
+      </c>
+      <c r="D967" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A968" t="s">
+        <v>130</v>
+      </c>
+      <c r="B968" t="s">
+        <v>131</v>
+      </c>
+      <c r="C968" t="s">
+        <v>132</v>
+      </c>
+      <c r="D968" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A969" t="s">
+        <v>133</v>
+      </c>
+      <c r="B969" t="s">
+        <v>134</v>
+      </c>
+      <c r="C969" t="s">
+        <v>135</v>
+      </c>
+      <c r="D969" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A970" t="s">
+        <v>136</v>
+      </c>
+      <c r="B970" t="s">
+        <v>137</v>
+      </c>
+      <c r="C970" t="s">
+        <v>138</v>
+      </c>
+      <c r="D970" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A971" t="s">
+        <v>139</v>
+      </c>
+      <c r="B971" t="s">
+        <v>140</v>
+      </c>
+      <c r="C971" t="s">
+        <v>141</v>
+      </c>
+      <c r="D971" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A972" t="s">
+        <v>142</v>
+      </c>
+      <c r="B972" t="s">
+        <v>143</v>
+      </c>
+      <c r="C972" t="s">
+        <v>144</v>
+      </c>
+      <c r="D972" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A973" t="s">
+        <v>145</v>
+      </c>
+      <c r="B973" t="s">
+        <v>146</v>
+      </c>
+      <c r="C973" t="s">
+        <v>147</v>
+      </c>
+      <c r="D973" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A974" t="s">
+        <v>148</v>
+      </c>
+      <c r="B974" t="s">
+        <v>149</v>
+      </c>
+      <c r="C974" t="s">
+        <v>150</v>
+      </c>
+      <c r="D974" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A975" t="s">
+        <v>151</v>
+      </c>
+      <c r="B975" t="s">
+        <v>152</v>
+      </c>
+      <c r="C975" t="s">
+        <v>153</v>
+      </c>
+      <c r="D975" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A976" t="s">
+        <v>154</v>
+      </c>
+      <c r="B976" t="s">
+        <v>155</v>
+      </c>
+      <c r="C976" t="s">
+        <v>156</v>
+      </c>
+      <c r="D976" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A977" t="s">
+        <v>157</v>
+      </c>
+      <c r="B977" t="s">
+        <v>158</v>
+      </c>
+      <c r="C977" t="s">
+        <v>159</v>
+      </c>
+      <c r="D977" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A978" t="s">
+        <v>160</v>
+      </c>
+      <c r="B978" t="s">
+        <v>161</v>
+      </c>
+      <c r="C978" t="s">
+        <v>162</v>
+      </c>
+      <c r="D978" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A979" t="s">
+        <v>163</v>
+      </c>
+      <c r="B979" t="s">
+        <v>164</v>
+      </c>
+      <c r="C979" t="s">
+        <v>165</v>
+      </c>
+      <c r="D979" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A980" t="s">
+        <v>166</v>
+      </c>
+      <c r="B980" t="s">
+        <v>167</v>
+      </c>
+      <c r="C980" t="s">
+        <v>168</v>
+      </c>
+      <c r="D980" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A981" t="s">
+        <v>169</v>
+      </c>
+      <c r="B981" t="s">
+        <v>170</v>
+      </c>
+      <c r="C981" t="s">
+        <v>171</v>
+      </c>
+      <c r="D981" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A982" t="s">
+        <v>172</v>
+      </c>
+      <c r="B982" t="s">
+        <v>173</v>
+      </c>
+      <c r="C982" t="s">
+        <v>174</v>
+      </c>
+      <c r="D982" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A983" t="s">
+        <v>175</v>
+      </c>
+      <c r="B983" t="s">
+        <v>176</v>
+      </c>
+      <c r="C983" t="s">
+        <v>177</v>
+      </c>
+      <c r="D983" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A984" t="s">
+        <v>178</v>
+      </c>
+      <c r="B984" t="s">
+        <v>179</v>
+      </c>
+      <c r="C984" t="s">
+        <v>180</v>
+      </c>
+      <c r="D984" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A985" t="s">
+        <v>181</v>
+      </c>
+      <c r="B985" t="s">
+        <v>182</v>
+      </c>
+      <c r="C985" t="s">
+        <v>183</v>
+      </c>
+      <c r="D985" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A986" t="s">
+        <v>184</v>
+      </c>
+      <c r="B986" t="s">
+        <v>185</v>
+      </c>
+      <c r="C986" t="s">
+        <v>186</v>
+      </c>
+      <c r="D986" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A987" t="s">
+        <v>187</v>
+      </c>
+      <c r="B987" t="s">
+        <v>188</v>
+      </c>
+      <c r="C987" t="s">
+        <v>189</v>
+      </c>
+      <c r="D987" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A988" t="s">
+        <v>190</v>
+      </c>
+      <c r="B988" t="s">
+        <v>191</v>
+      </c>
+      <c r="C988" t="s">
+        <v>192</v>
+      </c>
+      <c r="D988" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A989" t="s">
+        <v>193</v>
+      </c>
+      <c r="B989" t="s">
+        <v>194</v>
+      </c>
+      <c r="C989" t="s">
+        <v>195</v>
+      </c>
+      <c r="D989" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A990" t="s">
+        <v>196</v>
+      </c>
+      <c r="B990" t="s">
+        <v>197</v>
+      </c>
+      <c r="C990" t="s">
+        <v>198</v>
+      </c>
+      <c r="D990" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A991" t="s">
+        <v>199</v>
+      </c>
+      <c r="B991" t="s">
+        <v>200</v>
+      </c>
+      <c r="C991" t="s">
+        <v>201</v>
+      </c>
+      <c r="D991" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A992" t="s">
+        <v>202</v>
+      </c>
+      <c r="B992" t="s">
+        <v>203</v>
+      </c>
+      <c r="C992" t="s">
+        <v>204</v>
+      </c>
+      <c r="D992" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A993" t="s">
+        <v>205</v>
+      </c>
+      <c r="B993" t="s">
+        <v>206</v>
+      </c>
+      <c r="C993" t="s">
+        <v>207</v>
+      </c>
+      <c r="D993" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A994" t="s">
+        <v>208</v>
+      </c>
+      <c r="B994" t="s">
+        <v>209</v>
+      </c>
+      <c r="C994" t="s">
+        <v>210</v>
+      </c>
+      <c r="D994" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A995" t="s">
+        <v>0</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1</v>
+      </c>
+      <c r="C995" t="s">
+        <v>2</v>
+      </c>
+      <c r="D995" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A996" t="s">
+        <v>4</v>
+      </c>
+      <c r="B996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C996" t="s">
+        <v>6</v>
+      </c>
+      <c r="D996" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A997" t="s">
+        <v>7</v>
+      </c>
+      <c r="B997" t="s">
+        <v>8</v>
+      </c>
+      <c r="C997" t="s">
+        <v>9</v>
+      </c>
+      <c r="D997" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A998" t="s">
+        <v>10</v>
+      </c>
+      <c r="B998" t="s">
+        <v>11</v>
+      </c>
+      <c r="C998" t="s">
+        <v>12</v>
+      </c>
+      <c r="D998" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A999" t="s">
+        <v>13</v>
+      </c>
+      <c r="B999" t="s">
+        <v>14</v>
+      </c>
+      <c r="C999" t="s">
+        <v>15</v>
+      </c>
+      <c r="D999" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1000" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1001" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1002" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1003" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1004" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1005" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1006" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1007" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1008" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1009" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1010" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1011" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1012" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1013" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1014" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1015" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1016" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1017" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
